--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2151.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2151.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.211168608557669</v>
+        <v>0.8140609860420227</v>
       </c>
       <c r="B1">
-        <v>2.128031513056697</v>
+        <v>1.401088118553162</v>
       </c>
       <c r="C1">
         <v>-1</v>
       </c>
       <c r="D1">
-        <v>1.900858882534926</v>
+        <v>1.775173664093018</v>
       </c>
       <c r="E1">
-        <v>0.7991323229371478</v>
+        <v>1.157453656196594</v>
       </c>
     </row>
   </sheetData>
